--- a/data/DB Info List.xlsx
+++ b/data/DB Info List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>so_qdb</t>
   </si>
@@ -59,17 +59,26 @@
     <t>from_asish</t>
   </si>
   <si>
-    <t>complete DB till Q vector generation done.</t>
-  </si>
-  <si>
-    <t>Final DB</t>
+    <t>Just Data</t>
+  </si>
+  <si>
+    <t>Just Test Data</t>
+  </si>
+  <si>
+    <t>complete DB till Q vector generation done. FW&gt;6 ; TQ Thrs &gt; 20</t>
+  </si>
+  <si>
+    <t>just_data</t>
+  </si>
+  <si>
+    <t>Final DB fw&gt;6 ; qt&gt;20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +101,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,14 +131,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -406,59 +446,74 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
